--- a/excel_workbooks/average_daily_rides_income_rescaling.xlsx
+++ b/excel_workbooks/average_daily_rides_income_rescaling.xlsx
@@ -177,13 +177,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,6 +185,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -228,7 +228,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.110713964561165"/>
+          <c:y val="0.0417335473515249"/>
+          <c:w val="0.851768252614104"/>
+          <c:h val="0.819111993023344"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -446,50 +456,176 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2053579032"/>
-        <c:axId val="-2014899352"/>
+        <c:axId val="-2018505320"/>
+        <c:axId val="-2017129736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2053579032"/>
+        <c:axId val="-2018505320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600">
+                    <a:latin typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:latin typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Stations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4349349212022"/>
+              <c:y val="0.900481540930979"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2014899352"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2017129736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2014899352"/>
+        <c:axId val="-2017129736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600">
+                    <a:latin typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:latin typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Passenger</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                    <a:latin typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:rPr>
+                  <a:t> Throughput</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:latin typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00849194729136164"/>
+              <c:y val="0.202292690941722"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2053579032"/>
+        <c:crossAx val="-2018505320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.724564969276351"/>
+          <c:y val="0.146603809355291"/>
+          <c:w val="0.130486275233165"/>
+          <c:h val="0.209200085944313"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600">
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -508,10 +644,10 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -857,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -870,28 +1006,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -905,10 +1041,10 @@
       <c r="C3">
         <v>17863</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>92579</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>D3/$D$16</f>
         <v>1.4659477776194321</v>
       </c>
@@ -927,10 +1063,10 @@
       <c r="C4">
         <v>15735</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>93047</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E14" si="0">D4/$D$16</f>
         <v>1.4733583519389419</v>
       </c>
@@ -949,10 +1085,10 @@
       <c r="C5">
         <v>14256</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>77708</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>1.2304720282488559</v>
       </c>
@@ -971,10 +1107,10 @@
       <c r="C6">
         <v>11964</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>93369</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>1.4784570804237329</v>
       </c>
@@ -993,10 +1129,10 @@
       <c r="C7">
         <v>11588</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>93472</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>1.4800880401564454</v>
       </c>
@@ -1015,10 +1151,10 @@
       <c r="C8">
         <v>11363</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>81976</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>1.2980539325131031</v>
       </c>
@@ -1037,10 +1173,10 @@
       <c r="C9">
         <v>10662</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>80476</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>1.2743020917454435</v>
       </c>
@@ -1059,10 +1195,10 @@
       <c r="C10">
         <v>10190</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10">
@@ -1080,10 +1216,10 @@
       <c r="C11">
         <v>9490</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>89874</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>1.4231152914350862</v>
       </c>
@@ -1102,10 +1238,10 @@
       <c r="C12">
         <v>9149</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>83694</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>1.3252577074723291</v>
       </c>
@@ -1124,10 +1260,10 @@
       <c r="C13">
         <v>8995</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>87306</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>1.3824521400408532</v>
       </c>
@@ -1146,10 +1282,10 @@
       <c r="C14">
         <v>8894</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>43002</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>0.68091777112726237</v>
       </c>
